--- a/biology/Microbiologie/Nolaclusilis/Nolaclusilis.xlsx
+++ b/biology/Microbiologie/Nolaclusilis/Nolaclusilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nolaclusiliidae
 Nolaclusilis, unique représentant de la famille des Nolaclusiliidae, est un genre de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Nolaclusilis est dérivé du latin nola, « clochette », clus, « fermeture » et ilis, « apte à subir ou exerce l'action de », littéralement « clochette à fermeture facile », en référence à la morphologie et à la fonction de la lorica (loge) unique de cet organisme[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Nolaclusilis est dérivé du latin nola, « clochette », clus, « fermeture » et ilis, « apte à subir ou exerce l'action de », littéralement « clochette à fermeture facile », en référence à la morphologie et à la fonction de la lorica (loge) unique de cet organisme. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été découvert dans l'estuaire de l'Hudson, près du pont Tappan Zee[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été découvert dans l'estuaire de l'Hudson, près du pont Tappan Zee.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (15 novembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (15 novembre 2023) :
 Nolaclusilis bicornis Snyder &amp; Brownlee, 1991
 Nolaclusilis hudsonicus Sniezek, Capriulo, Small &amp; Russo, 1991</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre et son espèce type Nolaclusilis bicornis ont été décrits en 1991 par Richard A. Snyder (d) et David C. Brownlee (d)[3]. La famille monogénérique des Nolaclusiliidae a été proposée la même année par James H. Sniezek (d), Gerard M. Capriulo, Eugene B. Small (d) et Anthony Russo, avec la description d'une deuxième espèce, Nolaclusilis hudsonicus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre et son espèce type Nolaclusilis bicornis ont été décrits en 1991 par Richard A. Snyder (d) et David C. Brownlee (d). La famille monogénérique des Nolaclusiliidae a été proposée la même année par James H. Sniezek (d), Gerard M. Capriulo, Eugene B. Small (d) et Anthony Russo, avec la description d'une deuxième espèce, Nolaclusilis hudsonicus.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) R. A. Snyder et D. C. Brownlee, « Nolaclusilis bicornis n. g., n. sp. (Tintinnina Tintinnidiidae): a tintinnine ciliate with novel lorica and cell morphology from the Chesapeake Bay estuary », Journal of Protozoology, vol. 38,‎ 1991, p. 583–589.
 (en) James H. Sniezek, Gerard M. Capriulo, Eugene B. Small et Anthony Russo, « Nolaclusilis hudsonicus n. sp. (Nolaclusiliidae n. fam.) a bilaterally symmetrical tintinnine ciliate from the lower Hudson River estuary », Journal of Protozoology, vol. 38,‎ 1991, p. 589–594.</t>
